--- a/run_entrance/test_suite/test_suite_hc01补齐补正接件.xlsx
+++ b/run_entrance/test_suite/test_suite_hc01补齐补正接件.xlsx
@@ -220,7 +220,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://10.45.67.194:9180/</t>
+    <t>http://10.45.67.194:9180/mainmanager.html</t>
   </si>
   <si>
     <t>测试用例序号</t>
@@ -351,12 +351,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,11 +375,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF3296FA"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,64 +442,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -466,7 +451,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,11 +480,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,14 +524,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -534,13 +540,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +642,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,13 +684,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,139 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,32 +734,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,16 +773,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,6 +798,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,17 +831,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -833,10 +839,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,137 +851,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,7 +1029,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1384,8 +1393,8 @@
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="18" customWidth="1"/>
-    <col min="5" max="5" width="84.875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="84.875" style="20" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1399,10 +1408,10 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1419,40 +1428,40 @@
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1466,10 +1475,10 @@
       <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1480,10 +1489,10 @@
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1497,10 +1506,10 @@
       <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1514,10 +1523,10 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1525,13 +1534,13 @@
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1542,10 +1551,10 @@
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="20" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1559,10 +1568,10 @@
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1573,10 +1582,10 @@
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1587,10 +1596,10 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1604,10 +1613,10 @@
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1618,10 +1627,10 @@
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1632,10 +1641,10 @@
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="20" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1646,10 +1655,10 @@
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="20" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1660,10 +1669,10 @@
       <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1674,10 +1683,10 @@
       <c r="C19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="20" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1688,10 +1697,10 @@
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="20" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1702,10 +1711,10 @@
       <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="24" t="s">
         <v>60</v>
       </c>
       <c r="F21" s="14"/>
@@ -1717,10 +1726,10 @@
       <c r="C22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="24" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1731,10 +1740,10 @@
       <c r="C23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1750,7 +1759,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1763,17 +1772,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
-      <c r="A2" s="14" t="s">
+    <row r="2" ht="15.75" spans="1:1">
+      <c r="A2" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2" display="http://10.45.67.194:9180/mainmanager.html" tooltip="http://10.45.67.194:9180/mainmanager.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1906,7 +1916,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1955,7 +1965,7 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>102</v>
       </c>
       <c r="E2" s="9"/>

--- a/run_entrance/test_suite/test_suite_hc01补齐补正接件.xlsx
+++ b/run_entrance/test_suite/test_suite_hc01补齐补正接件.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="113">
   <si>
     <t>模块</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>//input[@class='form-control applicantCertNo']</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-取件方式选定</t>
+  </si>
+  <si>
+    <t>//label[contains(text(),'取件方式')]/following-sibling::div/div/span</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-窗口自取</t>
+  </si>
+  <si>
+    <t>//ul[@class='dropdown-list']/li[2]</t>
   </si>
   <si>
     <t>渔业船舶登记-取件信息选定</t>
@@ -389,8 +401,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,25 +447,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -434,32 +483,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,14 +500,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,23 +514,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,6 +528,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -540,25 +552,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,79 +702,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,73 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,41 +743,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -796,8 +773,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,6 +809,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -831,6 +832,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -839,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,19 +863,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,112 +884,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,10 +1394,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E15"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1625,7 +1637,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>9</v>
@@ -1653,12 +1665,12 @@
         <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1667,7 +1679,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>9</v>
@@ -1680,71 +1692,99 @@
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>40</v>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" ht="14.25" spans="2:6">
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="E21" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="2:6">
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="8" t="s">
         <v>65</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1769,12 +1809,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:1">
       <c r="A2" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1810,98 +1850,98 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:5">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:5">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1913,10 +1953,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B15" sqref="B15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1931,33 +1971,33 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -1966,14 +2006,14 @@
         <v>7</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
@@ -1989,7 +2029,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:6">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -2003,7 +2043,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:6">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>16</v>
@@ -2017,7 +2057,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:6">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -2027,13 +2067,13 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -2046,7 +2086,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -2055,12 +2095,12 @@
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -2074,7 +2114,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -2085,7 +2125,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -2096,7 +2136,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
@@ -2105,12 +2145,12 @@
         <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
@@ -2121,7 +2161,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
@@ -2130,12 +2170,12 @@
         <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>43</v>
@@ -2146,7 +2186,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>43</v>
@@ -2157,7 +2197,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>43</v>
@@ -2166,9 +2206,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>43</v>
@@ -2176,13 +2216,10 @@
       <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
@@ -2191,56 +2228,81 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
-        <v>108</v>
+    <row r="24" ht="14.25" spans="1:5">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/run_entrance/test_suite/test_suite_hc01补齐补正接件.xlsx
+++ b/run_entrance/test_suite/test_suite_hc01补齐补正接件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765" activeTab="3"/>
+    <workbookView windowWidth="21045" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="116">
   <si>
     <t>模块</t>
   </si>
@@ -157,6 +157,12 @@
     <t>//input[@class='form-control applicantCertNo']</t>
   </si>
   <si>
+    <t>渔业船舶登记-移动电话</t>
+  </si>
+  <si>
+    <t>//input[@class='form-control mobilePhone']</t>
+  </si>
+  <si>
     <t>渔业船舶登记-取件方式选定</t>
   </si>
   <si>
@@ -350,6 +356,9 @@
   </si>
   <si>
     <t>460105199003072478</t>
+  </si>
+  <si>
+    <t>18888888888</t>
   </si>
   <si>
     <t>{"len":1}</t>
@@ -364,9 +373,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -401,11 +410,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,6 +455,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -433,105 +540,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,31 +561,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,151 +729,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,30 +779,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -805,15 +790,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,6 +811,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -843,6 +828,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -851,10 +860,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,19 +872,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,112 +893,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1394,10 +1403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1637,7 +1646,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>9</v>
@@ -1656,7 +1665,7 @@
       <c r="D16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="24" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1665,12 +1674,12 @@
         <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="20" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1679,12 +1688,12 @@
         <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="24" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1707,7 +1716,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>9</v>
@@ -1720,51 +1729,50 @@
       <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>40</v>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>9</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="2:6">
+    <row r="23" spans="2:5">
       <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="2:6">
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>9</v>
@@ -1772,19 +1780,34 @@
       <c r="E24" s="24" t="s">
         <v>66</v>
       </c>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="8" t="s">
         <v>69</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1809,12 +1832,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:1">
       <c r="A2" s="17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1850,98 +1873,98 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:5">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:5">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:5">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1953,10 +1976,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1971,33 +1994,33 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -2006,14 +2029,14 @@
         <v>7</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
@@ -2029,7 +2052,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:6">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -2043,7 +2066,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:6">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>16</v>
@@ -2057,7 +2080,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:6">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -2067,13 +2090,13 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -2086,7 +2109,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -2095,12 +2118,12 @@
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -2114,7 +2137,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -2125,7 +2148,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -2136,7 +2159,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
@@ -2145,12 +2168,12 @@
         <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
@@ -2161,7 +2184,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
@@ -2170,12 +2193,12 @@
         <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>43</v>
@@ -2183,10 +2206,13 @@
       <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>43</v>
@@ -2197,7 +2223,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>43</v>
@@ -2208,7 +2234,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>43</v>
@@ -2219,7 +2245,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
@@ -2228,9 +2254,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>43</v>
@@ -2238,13 +2264,10 @@
       <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>43</v>
@@ -2252,21 +2275,24 @@
       <c r="C21" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>43</v>
@@ -2275,23 +2301,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:5">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" ht="14.25" spans="1:5">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>43</v>
@@ -2299,10 +2322,24 @@
       <c r="C25" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="1" t="s">
-        <v>112</v>
+      <c r="E25" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
